--- a/도로명정보조회.xlsx
+++ b/도로명정보조회.xlsx
@@ -7,14 +7,17 @@
     <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
+  <si>
+    <t>서해안고속도로</t>
+  </si>
   <si>
     <t>남부순환로</t>
   </si>
@@ -31,6 +34,9 @@
     <t>금하로</t>
   </si>
   <si>
+    <t>기아로</t>
+  </si>
+  <si>
     <t>디지털로</t>
   </si>
   <si>
@@ -43,6 +49,12 @@
     <t>벚꽃로</t>
   </si>
   <si>
+    <t>가산디지털1로</t>
+  </si>
+  <si>
+    <t>가산디지털2로</t>
+  </si>
+  <si>
     <t>가산로</t>
   </si>
   <si>
@@ -67,63 +79,1124 @@
     <t>강남순환로</t>
   </si>
   <si>
+    <t>가산로3가길</t>
+  </si>
+  <si>
+    <t>가산로3길</t>
+  </si>
+  <si>
+    <t>가산로5길</t>
+  </si>
+  <si>
+    <t>가산로7길</t>
+  </si>
+  <si>
+    <t>가산로9길</t>
+  </si>
+  <si>
+    <t>금하로11길</t>
+  </si>
+  <si>
+    <t>금하로14길</t>
+  </si>
+  <si>
+    <t>금하로15길</t>
+  </si>
+  <si>
+    <t>금하로16길</t>
+  </si>
+  <si>
+    <t>금하로18길</t>
+  </si>
+  <si>
+    <t>금하로1가길</t>
+  </si>
+  <si>
+    <t>금하로1길</t>
+  </si>
+  <si>
+    <t>금하로1나길</t>
+  </si>
+  <si>
+    <t>금하로1다길</t>
+  </si>
+  <si>
+    <t>금하로1라길</t>
+  </si>
+  <si>
+    <t>금하로1마길</t>
+  </si>
+  <si>
+    <t>금하로20길</t>
+  </si>
+  <si>
+    <t>금하로21길</t>
+  </si>
+  <si>
+    <t>금하로23가길</t>
+  </si>
+  <si>
+    <t>금하로23길</t>
+  </si>
+  <si>
+    <t>금하로23나길</t>
+  </si>
+  <si>
+    <t>금하로23다길</t>
+  </si>
+  <si>
+    <t>금하로23라길</t>
+  </si>
+  <si>
+    <t>금하로24가길</t>
+  </si>
+  <si>
+    <t>금하로24길</t>
+  </si>
+  <si>
+    <t>금하로24나길</t>
+  </si>
+  <si>
+    <t>금하로24다길</t>
+  </si>
+  <si>
+    <t>금하로24라길</t>
+  </si>
+  <si>
+    <t>금하로25길</t>
+  </si>
+  <si>
+    <t>금하로28길</t>
+  </si>
+  <si>
+    <t>금하로29길</t>
+  </si>
+  <si>
+    <t>금하로30길</t>
+  </si>
+  <si>
+    <t>금하로3길</t>
+  </si>
+  <si>
+    <t>금하로5길</t>
+  </si>
+  <si>
+    <t>금하로9길</t>
+  </si>
+  <si>
+    <t>남부순환로108길</t>
+  </si>
+  <si>
+    <t>남부순환로110길</t>
+  </si>
+  <si>
+    <t>남부순환로112길</t>
+  </si>
+  <si>
+    <t>남부순환로120길</t>
+  </si>
+  <si>
+    <t>남부순환로122길</t>
+  </si>
+  <si>
+    <t>남부순환로124길</t>
+  </si>
+  <si>
+    <t>남부순환로126가길</t>
+  </si>
+  <si>
+    <t>남부순환로126길</t>
+  </si>
+  <si>
+    <t>남부순환로128길</t>
+  </si>
+  <si>
+    <t>남부순환로130길</t>
+  </si>
+  <si>
+    <t>남부순환로132길</t>
+  </si>
+  <si>
+    <t>독산로101길</t>
+  </si>
+  <si>
+    <t>독산로102길</t>
+  </si>
+  <si>
+    <t>독산로103길</t>
+  </si>
+  <si>
+    <t>독산로106길</t>
+  </si>
+  <si>
+    <t>독산로107길</t>
+  </si>
+  <si>
+    <t>독산로108길</t>
+  </si>
+  <si>
+    <t>독산로109길</t>
+  </si>
+  <si>
+    <t>독산로10가길</t>
+  </si>
+  <si>
+    <t>독산로10길</t>
+  </si>
+  <si>
+    <t>독산로11길</t>
+  </si>
+  <si>
+    <t>독산로14길</t>
+  </si>
+  <si>
+    <t>독산로16길</t>
+  </si>
+  <si>
+    <t>독산로18길</t>
+  </si>
+  <si>
+    <t>독산로1길</t>
+  </si>
+  <si>
+    <t>독산로20길</t>
+  </si>
+  <si>
+    <t>독산로21길</t>
+  </si>
+  <si>
+    <t>독산로22가길</t>
+  </si>
+  <si>
+    <t>독산로22길</t>
+  </si>
+  <si>
+    <t>독산로23길</t>
+  </si>
+  <si>
+    <t>독산로24가길</t>
+  </si>
+  <si>
+    <t>독산로24길</t>
+  </si>
+  <si>
+    <t>독산로24나길</t>
+  </si>
+  <si>
+    <t>독산로24다길</t>
+  </si>
+  <si>
+    <t>독산로24라길</t>
+  </si>
+  <si>
+    <t>독산로24마길</t>
+  </si>
+  <si>
+    <t>독산로25길</t>
+  </si>
+  <si>
+    <t>독산로26길</t>
+  </si>
+  <si>
+    <t>독산로27길</t>
+  </si>
+  <si>
+    <t>독산로28가길</t>
+  </si>
+  <si>
+    <t>독산로28길</t>
+  </si>
+  <si>
+    <t>독산로28나길</t>
+  </si>
+  <si>
+    <t>독산로29길</t>
+  </si>
+  <si>
+    <t>독산로2길</t>
+  </si>
+  <si>
+    <t>독산로31길</t>
+  </si>
+  <si>
+    <t>독산로32가길</t>
+  </si>
+  <si>
+    <t>독산로32길</t>
+  </si>
+  <si>
+    <t>독산로32나길</t>
+  </si>
+  <si>
+    <t>독산로32다길</t>
+  </si>
+  <si>
+    <t>독산로33길</t>
+  </si>
+  <si>
+    <t>독산로35가길</t>
+  </si>
+  <si>
+    <t>독산로35길</t>
+  </si>
+  <si>
+    <t>독산로36가길</t>
+  </si>
+  <si>
+    <t>독산로36길</t>
+  </si>
+  <si>
+    <t>독산로36나길</t>
+  </si>
+  <si>
+    <t>독산로38길</t>
+  </si>
+  <si>
+    <t>독산로39길</t>
+  </si>
+  <si>
+    <t>독산로3길</t>
+  </si>
+  <si>
+    <t>독산로40길</t>
+  </si>
+  <si>
+    <t>독산로41가길</t>
+  </si>
+  <si>
+    <t>독산로41길</t>
+  </si>
+  <si>
+    <t>독산로43가길</t>
+  </si>
+  <si>
+    <t>독산로43길</t>
+  </si>
+  <si>
+    <t>독산로44가길</t>
+  </si>
+  <si>
+    <t>독산로44길</t>
+  </si>
+  <si>
+    <t>독산로44나길</t>
+  </si>
+  <si>
+    <t>독산로44다길</t>
+  </si>
+  <si>
+    <t>독산로44라길</t>
+  </si>
+  <si>
+    <t>독산로45가길</t>
+  </si>
+  <si>
+    <t>독산로45길</t>
+  </si>
+  <si>
+    <t>독산로45나길</t>
+  </si>
+  <si>
+    <t>독산로47가길</t>
+  </si>
+  <si>
+    <t>독산로47길</t>
+  </si>
+  <si>
+    <t>독산로49길</t>
+  </si>
+  <si>
+    <t>독산로4길</t>
+  </si>
+  <si>
+    <t>독산로50가길</t>
+  </si>
+  <si>
+    <t>독산로50길</t>
+  </si>
+  <si>
+    <t>독산로50나길</t>
+  </si>
+  <si>
+    <t>독산로50다길</t>
+  </si>
+  <si>
+    <t>독산로50라길</t>
+  </si>
+  <si>
+    <t>독산로50마길</t>
+  </si>
+  <si>
+    <t>독산로51길</t>
+  </si>
+  <si>
+    <t>독산로52길</t>
+  </si>
+  <si>
+    <t>독산로53길</t>
+  </si>
+  <si>
+    <t>독산로54길</t>
+  </si>
+  <si>
+    <t>독산로55길</t>
+  </si>
+  <si>
+    <t>독산로56길</t>
+  </si>
+  <si>
+    <t>독산로58가길</t>
+  </si>
+  <si>
+    <t>독산로58길</t>
+  </si>
+  <si>
+    <t>독산로58나길</t>
+  </si>
+  <si>
+    <t>독산로58다길</t>
+  </si>
+  <si>
+    <t>독산로58라길</t>
+  </si>
+  <si>
+    <t>독산로5길</t>
+  </si>
+  <si>
+    <t>독산로60길</t>
+  </si>
+  <si>
+    <t>독산로62길</t>
+  </si>
+  <si>
+    <t>독산로64가길</t>
+  </si>
+  <si>
+    <t>독산로64길</t>
+  </si>
+  <si>
+    <t>독산로64나길</t>
+  </si>
+  <si>
+    <t>독산로64다길</t>
+  </si>
+  <si>
+    <t>독산로64라길</t>
+  </si>
+  <si>
+    <t>독산로65길</t>
+  </si>
+  <si>
+    <t>독산로67길</t>
+  </si>
+  <si>
+    <t>독산로68가길</t>
+  </si>
+  <si>
+    <t>독산로68길</t>
+  </si>
+  <si>
+    <t>독산로69길</t>
+  </si>
+  <si>
+    <t>독산로6가길</t>
+  </si>
+  <si>
+    <t>독산로6길</t>
+  </si>
+  <si>
+    <t>독산로70가길</t>
+  </si>
+  <si>
+    <t>독산로70길</t>
+  </si>
+  <si>
+    <t>독산로70나길</t>
+  </si>
+  <si>
+    <t>독산로70다길</t>
+  </si>
+  <si>
+    <t>독산로70라길</t>
+  </si>
+  <si>
+    <t>독산로72길</t>
+  </si>
+  <si>
+    <t>독산로73길</t>
+  </si>
+  <si>
+    <t>독산로74길</t>
+  </si>
+  <si>
+    <t>독산로75길</t>
+  </si>
+  <si>
+    <t>독산로76길</t>
+  </si>
+  <si>
+    <t>독산로77길</t>
+  </si>
+  <si>
+    <t>독산로78가길</t>
+  </si>
+  <si>
+    <t>독산로78길</t>
+  </si>
+  <si>
+    <t>독산로78나길</t>
+  </si>
+  <si>
+    <t>독산로78다길</t>
+  </si>
+  <si>
+    <t>독산로7길</t>
+  </si>
+  <si>
+    <t>독산로80가길</t>
+  </si>
+  <si>
+    <t>독산로80길</t>
+  </si>
+  <si>
+    <t>독산로82가길</t>
+  </si>
+  <si>
+    <t>독산로82길</t>
+  </si>
+  <si>
+    <t>독산로84길</t>
+  </si>
+  <si>
+    <t>독산로85길</t>
+  </si>
+  <si>
+    <t>독산로86길</t>
+  </si>
+  <si>
+    <t>독산로87길</t>
+  </si>
+  <si>
+    <t>독산로88길</t>
+  </si>
+  <si>
+    <t>독산로8가길</t>
+  </si>
+  <si>
+    <t>독산로8길</t>
+  </si>
+  <si>
+    <t>독산로8나길</t>
+  </si>
+  <si>
+    <t>독산로8다길</t>
+  </si>
+  <si>
+    <t>독산로90길</t>
+  </si>
+  <si>
+    <t>독산로92길</t>
+  </si>
+  <si>
+    <t>독산로93길</t>
+  </si>
+  <si>
+    <t>독산로94가길</t>
+  </si>
+  <si>
+    <t>독산로94길</t>
+  </si>
+  <si>
+    <t>독산로95길</t>
+  </si>
+  <si>
+    <t>독산로96길</t>
+  </si>
+  <si>
+    <t>독산로97길</t>
+  </si>
+  <si>
+    <t>독산로99길</t>
+  </si>
+  <si>
+    <t>두산로10길</t>
+  </si>
+  <si>
+    <t>두산로11길</t>
+  </si>
+  <si>
+    <t>두산로13길</t>
+  </si>
+  <si>
+    <t>두산로14길</t>
+  </si>
+  <si>
+    <t>두산로3가길</t>
+  </si>
+  <si>
+    <t>두산로3길</t>
+  </si>
+  <si>
+    <t>두산로5길</t>
+  </si>
+  <si>
+    <t>두산로7길</t>
+  </si>
+  <si>
+    <t>두산로9가길</t>
+  </si>
+  <si>
+    <t>두산로9길</t>
+  </si>
+  <si>
+    <t>디지털로10길</t>
+  </si>
+  <si>
+    <t>디지털로11길</t>
+  </si>
+  <si>
+    <t>디지털로12길</t>
+  </si>
+  <si>
+    <t>디지털로9길</t>
+  </si>
+  <si>
+    <t>문성로1길</t>
+  </si>
+  <si>
+    <t>문성로3가길</t>
+  </si>
+  <si>
+    <t>문성로3길</t>
+  </si>
+  <si>
+    <t>문성로5가길</t>
+  </si>
+  <si>
+    <t>문성로5길</t>
+  </si>
+  <si>
+    <t>문성로7가길</t>
+  </si>
+  <si>
+    <t>문성로7길</t>
+  </si>
+  <si>
+    <t>범안로11길</t>
+  </si>
+  <si>
+    <t>범안로12가길</t>
+  </si>
+  <si>
+    <t>범안로12길</t>
+  </si>
+  <si>
+    <t>범안로13길</t>
+  </si>
+  <si>
+    <t>범안로14길</t>
+  </si>
+  <si>
+    <t>범안로15길</t>
+  </si>
+  <si>
+    <t>범안로16길</t>
+  </si>
+  <si>
+    <t>범안로17길</t>
+  </si>
+  <si>
+    <t>범안로18길</t>
+  </si>
+  <si>
+    <t>범안로19길</t>
+  </si>
+  <si>
+    <t>범안로20길</t>
+  </si>
+  <si>
+    <t>범안로21길</t>
+  </si>
+  <si>
+    <t>범안로9길</t>
+  </si>
+  <si>
+    <t>벚꽃로10길</t>
+  </si>
+  <si>
+    <t>벚꽃로12길</t>
+  </si>
+  <si>
+    <t>벚꽃로14길</t>
+  </si>
+  <si>
+    <t>벚꽃로18길</t>
+  </si>
+  <si>
+    <t>벚꽃로20길</t>
+  </si>
+  <si>
+    <t>벚꽃로24길</t>
+  </si>
+  <si>
+    <t>벚꽃로26길</t>
+  </si>
+  <si>
+    <t>벚꽃로38길</t>
+  </si>
+  <si>
+    <t>벚꽃로40길</t>
+  </si>
+  <si>
+    <t>벚꽃로42길</t>
+  </si>
+  <si>
+    <t>벚꽃로44길</t>
+  </si>
+  <si>
+    <t>벚꽃로46가길</t>
+  </si>
+  <si>
+    <t>벚꽃로46길</t>
+  </si>
+  <si>
+    <t>벚꽃로46나길</t>
+  </si>
+  <si>
+    <t>벚꽃로46다길</t>
+  </si>
+  <si>
+    <t>벚꽃로48길</t>
+  </si>
+  <si>
+    <t>벚꽃로50길</t>
+  </si>
+  <si>
+    <t>벚꽃로52길</t>
+  </si>
+  <si>
+    <t>벚꽃로56길</t>
+  </si>
+  <si>
+    <t>벚꽃로6길</t>
+  </si>
+  <si>
     <t>서부샛길</t>
   </si>
   <si>
+    <t>시흥대로100길</t>
+  </si>
+  <si>
+    <t>시흥대로101길</t>
+  </si>
+  <si>
+    <t>시흥대로102길</t>
+  </si>
+  <si>
+    <t>시흥대로103길</t>
+  </si>
+  <si>
+    <t>시흥대로104가길</t>
+  </si>
+  <si>
+    <t>시흥대로104길</t>
+  </si>
+  <si>
+    <t>시흥대로104나길</t>
+  </si>
+  <si>
+    <t>시흥대로104다길</t>
+  </si>
+  <si>
+    <t>시흥대로105길</t>
+  </si>
+  <si>
+    <t>시흥대로106길</t>
+  </si>
+  <si>
+    <t>시흥대로10길</t>
+  </si>
+  <si>
+    <t>시흥대로110길</t>
+  </si>
+  <si>
+    <t>시흥대로112길</t>
+  </si>
+  <si>
+    <t>시흥대로114길</t>
+  </si>
+  <si>
+    <t>시흥대로115길</t>
+  </si>
+  <si>
+    <t>시흥대로116길</t>
+  </si>
+  <si>
+    <t>시흥대로118길</t>
+  </si>
+  <si>
+    <t>시흥대로120길</t>
+  </si>
+  <si>
+    <t>시흥대로122길</t>
+  </si>
+  <si>
+    <t>시흥대로123길</t>
+  </si>
+  <si>
+    <t>시흥대로124길</t>
+  </si>
+  <si>
+    <t>시흥대로126길</t>
+  </si>
+  <si>
+    <t>시흥대로128길</t>
+  </si>
+  <si>
+    <t>시흥대로12길</t>
+  </si>
+  <si>
+    <t>시흥대로130길</t>
+  </si>
+  <si>
+    <t>시흥대로134길</t>
+  </si>
+  <si>
+    <t>시흥대로136길</t>
+  </si>
+  <si>
+    <t>시흥대로138길</t>
+  </si>
+  <si>
+    <t>시흥대로139길</t>
+  </si>
+  <si>
+    <t>시흥대로140길</t>
+  </si>
+  <si>
+    <t>시흥대로141길</t>
+  </si>
+  <si>
+    <t>시흥대로142길</t>
+  </si>
+  <si>
+    <t>시흥대로143길</t>
+  </si>
+  <si>
+    <t>시흥대로144길</t>
+  </si>
+  <si>
+    <t>시흥대로145길</t>
+  </si>
+  <si>
+    <t>시흥대로146길</t>
+  </si>
+  <si>
+    <t>시흥대로147길</t>
+  </si>
+  <si>
+    <t>시흥대로148길</t>
+  </si>
+  <si>
+    <t>시흥대로149가길</t>
+  </si>
+  <si>
+    <t>시흥대로149길</t>
+  </si>
+  <si>
+    <t>시흥대로14길</t>
+  </si>
+  <si>
+    <t>시흥대로150길</t>
+  </si>
+  <si>
+    <t>시흥대로151길</t>
+  </si>
+  <si>
+    <t>시흥대로152길</t>
+  </si>
+  <si>
+    <t>시흥대로153길</t>
+  </si>
+  <si>
+    <t>시흥대로16길</t>
+  </si>
+  <si>
+    <t>시흥대로18길</t>
+  </si>
+  <si>
+    <t>시흥대로20길</t>
+  </si>
+  <si>
+    <t>시흥대로22길</t>
+  </si>
+  <si>
+    <t>시흥대로24길</t>
+  </si>
+  <si>
+    <t>시흥대로26길</t>
+  </si>
+  <si>
+    <t>시흥대로27길</t>
+  </si>
+  <si>
+    <t>시흥대로28길</t>
+  </si>
+  <si>
+    <t>시흥대로2가길</t>
+  </si>
+  <si>
+    <t>시흥대로2길</t>
+  </si>
+  <si>
+    <t>시흥대로2나길</t>
+  </si>
+  <si>
+    <t>시흥대로30길</t>
+  </si>
+  <si>
+    <t>시흥대로32길</t>
+  </si>
+  <si>
+    <t>시흥대로34길</t>
+  </si>
+  <si>
+    <t>시흥대로36길</t>
+  </si>
+  <si>
+    <t>시흥대로37길</t>
+  </si>
+  <si>
+    <t>시흥대로38길</t>
+  </si>
+  <si>
+    <t>시흥대로39길</t>
+  </si>
+  <si>
+    <t>시흥대로40가길</t>
+  </si>
+  <si>
+    <t>시흥대로40길</t>
+  </si>
+  <si>
+    <t>시흥대로40나길</t>
+  </si>
+  <si>
+    <t>시흥대로40다길</t>
+  </si>
+  <si>
+    <t>시흥대로40라길</t>
+  </si>
+  <si>
+    <t>시흥대로40마길</t>
+  </si>
+  <si>
+    <t>시흥대로41길</t>
+  </si>
+  <si>
+    <t>시흥대로45길</t>
+  </si>
+  <si>
+    <t>시흥대로47길</t>
+  </si>
+  <si>
+    <t>시흥대로48길</t>
+  </si>
+  <si>
+    <t>시흥대로4길</t>
+  </si>
+  <si>
+    <t>시흥대로50길</t>
+  </si>
+  <si>
+    <t>시흥대로51길</t>
+  </si>
+  <si>
+    <t>시흥대로52길</t>
+  </si>
+  <si>
+    <t>시흥대로54길</t>
+  </si>
+  <si>
+    <t>시흥대로56길</t>
+  </si>
+  <si>
+    <t>시흥대로57길</t>
+  </si>
+  <si>
+    <t>시흥대로58길</t>
+  </si>
+  <si>
+    <t>시흥대로59길</t>
+  </si>
+  <si>
+    <t>시흥대로61길</t>
+  </si>
+  <si>
+    <t>시흥대로62가길</t>
+  </si>
+  <si>
+    <t>시흥대로62길</t>
+  </si>
+  <si>
+    <t>시흥대로63길</t>
+  </si>
+  <si>
+    <t>시흥대로64길</t>
+  </si>
+  <si>
+    <t>시흥대로66길</t>
+  </si>
+  <si>
+    <t>시흥대로68길</t>
+  </si>
+  <si>
+    <t>시흥대로6가길</t>
+  </si>
+  <si>
+    <t>시흥대로6길</t>
+  </si>
+  <si>
+    <t>시흥대로70길</t>
+  </si>
+  <si>
+    <t>시흥대로71길</t>
+  </si>
+  <si>
+    <t>시흥대로72길</t>
+  </si>
+  <si>
+    <t>시흥대로73길</t>
+  </si>
+  <si>
+    <t>시흥대로74가길</t>
+  </si>
+  <si>
+    <t>시흥대로74길</t>
+  </si>
+  <si>
+    <t>시흥대로74나길</t>
+  </si>
+  <si>
+    <t>시흥대로75길</t>
+  </si>
+  <si>
+    <t>시흥대로76길</t>
+  </si>
+  <si>
+    <t>시흥대로77길</t>
+  </si>
+  <si>
+    <t>시흥대로78길</t>
+  </si>
+  <si>
+    <t>시흥대로79길</t>
+  </si>
+  <si>
+    <t>시흥대로80길</t>
+  </si>
+  <si>
+    <t>시흥대로82길</t>
+  </si>
+  <si>
+    <t>시흥대로84가길</t>
+  </si>
+  <si>
+    <t>시흥대로84길</t>
+  </si>
+  <si>
+    <t>시흥대로84나길</t>
+  </si>
+  <si>
+    <t>시흥대로84다길</t>
+  </si>
+  <si>
+    <t>시흥대로84라길</t>
+  </si>
+  <si>
+    <t>시흥대로84마길</t>
+  </si>
+  <si>
+    <t>시흥대로86길</t>
+  </si>
+  <si>
+    <t>시흥대로88가길</t>
+  </si>
+  <si>
+    <t>시흥대로88길</t>
+  </si>
+  <si>
+    <t>시흥대로8길</t>
+  </si>
+  <si>
+    <t>시흥대로90길</t>
+  </si>
+  <si>
+    <t>시흥대로92길</t>
+  </si>
+  <si>
+    <t>시흥대로94길</t>
+  </si>
+  <si>
+    <t>시흥대로96길</t>
+  </si>
+  <si>
+    <t>시흥대로98길</t>
+  </si>
+  <si>
+    <t>은행나무로10길</t>
+  </si>
+  <si>
+    <t>은행나무로12길</t>
+  </si>
+  <si>
+    <t>은행나무로7길</t>
+  </si>
+  <si>
+    <t>탑골로10길</t>
+  </si>
+  <si>
+    <t>탑골로11길</t>
+  </si>
+  <si>
+    <t>탑골로13길</t>
+  </si>
+  <si>
+    <t>탑골로2길</t>
+  </si>
+  <si>
+    <t>탑골로3가길</t>
+  </si>
+  <si>
+    <t>탑골로3길</t>
+  </si>
+  <si>
+    <t>탑골로4길</t>
+  </si>
+  <si>
+    <t>탑골로5가길</t>
+  </si>
+  <si>
+    <t>탑골로5길</t>
+  </si>
+  <si>
+    <t>탑골로7길</t>
+  </si>
+  <si>
+    <t>탑골로8길</t>
+  </si>
+  <si>
+    <t>벚꽃로36길</t>
+  </si>
+  <si>
+    <t>시흥대로17길</t>
+  </si>
+  <si>
     <t>삼성산길</t>
   </si>
   <si>
-    <t>서해안고속도로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아로</t>
-  </si>
-  <si>
-    <r>
-      <t>가산디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>가산디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-  </si>
-  <si>
     <t>도로명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -136,37 +1209,60 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,8 +1271,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -546,139 +1646,1989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:A394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="26" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A375" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A376" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A377" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A378" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A379" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A380" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A381" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A382" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A383" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A384" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A385" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A386" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A387" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A388" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A389" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A390" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A391" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A392" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A393" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A394" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
